--- a/REGULAR/CTO/DIMAPILIS ANTHONY A..xlsx
+++ b/REGULAR/CTO/DIMAPILIS ANTHONY A..xlsx
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="550" uniqueCount="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="555" uniqueCount="285">
   <si>
     <t>PERIOD</t>
   </si>
@@ -903,6 +903,12 @@
   </si>
   <si>
     <t>UT(0-2-42)</t>
+  </si>
+  <si>
+    <t>10/13,24/2023</t>
+  </si>
+  <si>
+    <t>12/5,13,19,22/2023</t>
   </si>
 </sst>
 </file>
@@ -1603,8 +1609,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K539" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
-  <autoFilter ref="A8:K539"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K540" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+  <autoFilter ref="A8:K540"/>
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
     <tableColumn id="2" name="PARTICVLARS" dataDxfId="9"/>
@@ -1933,12 +1939,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K539"/>
+  <dimension ref="A2:K540"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <pane ySplit="3525" topLeftCell="A499" activePane="bottomLeft"/>
+      <pane ySplit="3525" topLeftCell="A496" activePane="bottomLeft"/>
       <selection activeCell="E5" sqref="E5"/>
-      <selection pane="bottomLeft" activeCell="B512" sqref="B512"/>
+      <selection pane="bottomLeft" activeCell="K516" sqref="K516"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2101,7 +2107,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>234.90700000000007</v>
+        <v>232.40700000000007</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -2111,7 +2117,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>259.875</v>
+        <v>260.375</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -13460,13 +13466,15 @@
       <c r="B512" s="20" t="s">
         <v>149</v>
       </c>
-      <c r="C512" s="13"/>
+      <c r="C512" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D512" s="39"/>
       <c r="E512" s="9"/>
       <c r="F512" s="20"/>
-      <c r="G512" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G512" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H512" s="39"/>
       <c r="I512" s="9"/>
@@ -13479,27 +13487,37 @@
       <c r="A513" s="40">
         <v>45200</v>
       </c>
-      <c r="B513" s="20"/>
-      <c r="C513" s="13"/>
+      <c r="B513" s="20" t="s">
+        <v>134</v>
+      </c>
+      <c r="C513" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D513" s="39"/>
       <c r="E513" s="9"/>
       <c r="F513" s="20"/>
-      <c r="G513" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H513" s="39"/>
+      <c r="G513" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H513" s="39">
+        <v>2</v>
+      </c>
       <c r="I513" s="9"/>
       <c r="J513" s="11"/>
-      <c r="K513" s="20"/>
+      <c r="K513" s="20" t="s">
+        <v>283</v>
+      </c>
     </row>
     <row r="514" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A514" s="40">
-        <v>45231</v>
-      </c>
-      <c r="B514" s="20"/>
+      <c r="A514" s="40"/>
+      <c r="B514" s="20" t="s">
+        <v>169</v>
+      </c>
       <c r="C514" s="13"/>
-      <c r="D514" s="39"/>
+      <c r="D514" s="39">
+        <v>1</v>
+      </c>
       <c r="E514" s="9"/>
       <c r="F514" s="20"/>
       <c r="G514" s="13" t="str">
@@ -13509,15 +13527,21 @@
       <c r="H514" s="39"/>
       <c r="I514" s="9"/>
       <c r="J514" s="11"/>
-      <c r="K514" s="20"/>
+      <c r="K514" s="49">
+        <v>45259</v>
+      </c>
     </row>
     <row r="515" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A515" s="40">
-        <v>45261</v>
-      </c>
-      <c r="B515" s="20"/>
+        <v>45231</v>
+      </c>
+      <c r="B515" s="20" t="s">
+        <v>226</v>
+      </c>
       <c r="C515" s="13"/>
-      <c r="D515" s="39"/>
+      <c r="D515" s="39">
+        <v>4</v>
+      </c>
       <c r="E515" s="9"/>
       <c r="F515" s="20"/>
       <c r="G515" s="13" t="str">
@@ -13527,11 +13551,13 @@
       <c r="H515" s="39"/>
       <c r="I515" s="9"/>
       <c r="J515" s="11"/>
-      <c r="K515" s="20"/>
+      <c r="K515" s="20" t="s">
+        <v>284</v>
+      </c>
     </row>
     <row r="516" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A516" s="40">
-        <v>45292</v>
+        <v>45261</v>
       </c>
       <c r="B516" s="20"/>
       <c r="C516" s="13"/>
@@ -13549,7 +13575,7 @@
     </row>
     <row r="517" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A517" s="40">
-        <v>45323</v>
+        <v>45292</v>
       </c>
       <c r="B517" s="20"/>
       <c r="C517" s="13"/>
@@ -13567,7 +13593,7 @@
     </row>
     <row r="518" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A518" s="40">
-        <v>45352</v>
+        <v>45323</v>
       </c>
       <c r="B518" s="20"/>
       <c r="C518" s="13"/>
@@ -13585,7 +13611,7 @@
     </row>
     <row r="519" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A519" s="40">
-        <v>45383</v>
+        <v>45352</v>
       </c>
       <c r="B519" s="20"/>
       <c r="C519" s="13"/>
@@ -13603,7 +13629,7 @@
     </row>
     <row r="520" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A520" s="40">
-        <v>45413</v>
+        <v>45383</v>
       </c>
       <c r="B520" s="20"/>
       <c r="C520" s="13"/>
@@ -13621,7 +13647,7 @@
     </row>
     <row r="521" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A521" s="40">
-        <v>45444</v>
+        <v>45413</v>
       </c>
       <c r="B521" s="20"/>
       <c r="C521" s="13"/>
@@ -13639,7 +13665,7 @@
     </row>
     <row r="522" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A522" s="40">
-        <v>45474</v>
+        <v>45444</v>
       </c>
       <c r="B522" s="20"/>
       <c r="C522" s="13"/>
@@ -13657,7 +13683,7 @@
     </row>
     <row r="523" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A523" s="40">
-        <v>45505</v>
+        <v>45474</v>
       </c>
       <c r="B523" s="20"/>
       <c r="C523" s="13"/>
@@ -13675,7 +13701,7 @@
     </row>
     <row r="524" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A524" s="40">
-        <v>45536</v>
+        <v>45505</v>
       </c>
       <c r="B524" s="20"/>
       <c r="C524" s="13"/>
@@ -13693,7 +13719,7 @@
     </row>
     <row r="525" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A525" s="40">
-        <v>45566</v>
+        <v>45536</v>
       </c>
       <c r="B525" s="20"/>
       <c r="C525" s="13"/>
@@ -13711,7 +13737,7 @@
     </row>
     <row r="526" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A526" s="40">
-        <v>45597</v>
+        <v>45566</v>
       </c>
       <c r="B526" s="20"/>
       <c r="C526" s="13"/>
@@ -13729,7 +13755,7 @@
     </row>
     <row r="527" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A527" s="40">
-        <v>45627</v>
+        <v>45597</v>
       </c>
       <c r="B527" s="20"/>
       <c r="C527" s="13"/>
@@ -13747,7 +13773,7 @@
     </row>
     <row r="528" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A528" s="40">
-        <v>45658</v>
+        <v>45627</v>
       </c>
       <c r="B528" s="20"/>
       <c r="C528" s="13"/>
@@ -13765,7 +13791,7 @@
     </row>
     <row r="529" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A529" s="40">
-        <v>45689</v>
+        <v>45658</v>
       </c>
       <c r="B529" s="20"/>
       <c r="C529" s="13"/>
@@ -13783,7 +13809,7 @@
     </row>
     <row r="530" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A530" s="40">
-        <v>45717</v>
+        <v>45689</v>
       </c>
       <c r="B530" s="20"/>
       <c r="C530" s="13"/>
@@ -13801,7 +13827,7 @@
     </row>
     <row r="531" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A531" s="40">
-        <v>45748</v>
+        <v>45717</v>
       </c>
       <c r="B531" s="20"/>
       <c r="C531" s="13"/>
@@ -13819,7 +13845,7 @@
     </row>
     <row r="532" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A532" s="40">
-        <v>45778</v>
+        <v>45748</v>
       </c>
       <c r="B532" s="20"/>
       <c r="C532" s="13"/>
@@ -13837,7 +13863,7 @@
     </row>
     <row r="533" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A533" s="40">
-        <v>45809</v>
+        <v>45778</v>
       </c>
       <c r="B533" s="20"/>
       <c r="C533" s="13"/>
@@ -13855,7 +13881,7 @@
     </row>
     <row r="534" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A534" s="40">
-        <v>45839</v>
+        <v>45809</v>
       </c>
       <c r="B534" s="20"/>
       <c r="C534" s="13"/>
@@ -13873,7 +13899,7 @@
     </row>
     <row r="535" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A535" s="40">
-        <v>45870</v>
+        <v>45839</v>
       </c>
       <c r="B535" s="20"/>
       <c r="C535" s="13"/>
@@ -13891,7 +13917,7 @@
     </row>
     <row r="536" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A536" s="40">
-        <v>45901</v>
+        <v>45870</v>
       </c>
       <c r="B536" s="20"/>
       <c r="C536" s="13"/>
@@ -13909,7 +13935,7 @@
     </row>
     <row r="537" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A537" s="40">
-        <v>45931</v>
+        <v>45901</v>
       </c>
       <c r="B537" s="20"/>
       <c r="C537" s="13"/>
@@ -13927,7 +13953,7 @@
     </row>
     <row r="538" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A538" s="40">
-        <v>45962</v>
+        <v>45931</v>
       </c>
       <c r="B538" s="20"/>
       <c r="C538" s="13"/>
@@ -13945,21 +13971,39 @@
     </row>
     <row r="539" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A539" s="40">
+        <v>45962</v>
+      </c>
+      <c r="B539" s="20"/>
+      <c r="C539" s="13"/>
+      <c r="D539" s="39"/>
+      <c r="E539" s="9"/>
+      <c r="F539" s="20"/>
+      <c r="G539" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H539" s="39"/>
+      <c r="I539" s="9"/>
+      <c r="J539" s="11"/>
+      <c r="K539" s="20"/>
+    </row>
+    <row r="540" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A540" s="40">
         <v>45992</v>
       </c>
-      <c r="B539" s="15"/>
-      <c r="C539" s="42"/>
-      <c r="D539" s="43"/>
-      <c r="E539" s="9"/>
-      <c r="F539" s="15"/>
-      <c r="G539" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H539" s="43"/>
-      <c r="I539" s="9"/>
-      <c r="J539" s="12"/>
-      <c r="K539" s="15"/>
+      <c r="B540" s="15"/>
+      <c r="C540" s="42"/>
+      <c r="D540" s="43"/>
+      <c r="E540" s="9"/>
+      <c r="F540" s="15"/>
+      <c r="G540" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H540" s="43"/>
+      <c r="I540" s="9"/>
+      <c r="J540" s="12"/>
+      <c r="K540" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
